--- a/Revision of all excel formulas and other topics.xlsx
+++ b/Revision of all excel formulas and other topics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\self projects\New folder\Documents\Exel Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630BF2B7-C0F2-45E4-AD49-2BDD0152F515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C481184B-1C86-4776-A52D-2D168A7A98F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11088" yWindow="0" windowWidth="12048" windowHeight="12336" firstSheet="3" activeTab="5" xr2:uid="{A9C85003-6970-4BAF-B93D-71B43708F6D4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="6" xr2:uid="{A9C85003-6970-4BAF-B93D-71B43708F6D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Excel_Data_Analysis" sheetId="1" r:id="rId1"/>
@@ -19,18 +19,19 @@
     <sheet name="Formulas" sheetId="4" r:id="rId4"/>
     <sheet name="Functions" sheetId="6" r:id="rId5"/>
     <sheet name="Logical Functiosn" sheetId="7" r:id="rId6"/>
+    <sheet name="Logical functions" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="Slicer_Region">#N/A</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId8"/>
+        <x14:slicerCache r:id="rId9"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="468">
   <si>
     <t>Name</t>
   </si>
@@ -1167,15 +1168,298 @@
   <si>
     <t>Meets Goals</t>
   </si>
+  <si>
+    <t>job_title_short</t>
+  </si>
+  <si>
+    <t>job_posted_date</t>
+  </si>
+  <si>
+    <t>job_location</t>
+  </si>
+  <si>
+    <t>job_country</t>
+  </si>
+  <si>
+    <t>company_name</t>
+  </si>
+  <si>
+    <t>job_via</t>
+  </si>
+  <si>
+    <t>job_schedule_type</t>
+  </si>
+  <si>
+    <t>salary_year_avg</t>
+  </si>
+  <si>
+    <t>job_work_from_home</t>
+  </si>
+  <si>
+    <t>job_skills</t>
+  </si>
+  <si>
+    <t>Business Analyst</t>
+  </si>
+  <si>
+    <t>Both Roles</t>
+  </si>
+  <si>
+    <t>=AND()</t>
+  </si>
+  <si>
+    <t>=OR()</t>
+  </si>
+  <si>
+    <t>Buckets</t>
+  </si>
+  <si>
+    <t>Senior Data Engineer</t>
+  </si>
+  <si>
+    <t>Aliso Viejo, CA</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Adroit Worldwide Media, Inc. (AWM Smart Shelf)</t>
+  </si>
+  <si>
+    <t>via ZipRecruiter</t>
+  </si>
+  <si>
+    <t>Full-time</t>
+  </si>
+  <si>
+    <t>['sql', 'python', 'gcp', 'power bi', 'tableau']</t>
+  </si>
+  <si>
+    <t>Anywhere</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Jobmatchingpartner Ltd</t>
+  </si>
+  <si>
+    <t>via LinkedIn Malta</t>
+  </si>
+  <si>
+    <t>Contractor</t>
+  </si>
+  <si>
+    <t>['sql', 'r', 'python', 'hadoop', 'spark', 'looker']</t>
+  </si>
+  <si>
+    <t>Reston, VA</t>
+  </si>
+  <si>
+    <t>Octo Consulting Group</t>
+  </si>
+  <si>
+    <t>via Snagajob</t>
+  </si>
+  <si>
+    <t>['sql', 'power bi']</t>
+  </si>
+  <si>
+    <t>Cupertino, CA</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>['sql', 'python', 'r']</t>
+  </si>
+  <si>
+    <t>Senior Data Analyst</t>
+  </si>
+  <si>
+    <t>Rochester, MN</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Securian Financial Group</t>
+  </si>
+  <si>
+    <t>['sql', 'aws', 'tableau', 'flow']</t>
+  </si>
+  <si>
+    <t>Des Moines, IA</t>
+  </si>
+  <si>
+    <t>EMC Insurance Companies</t>
+  </si>
+  <si>
+    <t>Full-time and Part-time</t>
+  </si>
+  <si>
+    <t>['r', 'python', 'sql', 'hadoop']</t>
+  </si>
+  <si>
+    <t>Atlanta, GA</t>
+  </si>
+  <si>
+    <t>The E Group</t>
+  </si>
+  <si>
+    <t>['sql', 'python', 'r', 'sql server', 'mysql', 'oracle', 'spss']</t>
+  </si>
+  <si>
+    <t>Jacksonville, FL</t>
+  </si>
+  <si>
+    <t>Okaya Corp</t>
+  </si>
+  <si>
+    <t>via Indeed</t>
+  </si>
+  <si>
+    <t>['power bi']</t>
+  </si>
+  <si>
+    <t>Dublin, CA</t>
+  </si>
+  <si>
+    <t>NextPhase</t>
+  </si>
+  <si>
+    <t>['sql', 'python', 'r', 'snowflake', 'oracle', 'tableau']</t>
+  </si>
+  <si>
+    <t>Charlotte, NC</t>
+  </si>
+  <si>
+    <t>Insight Global</t>
+  </si>
+  <si>
+    <t>via LinkedIn</t>
+  </si>
+  <si>
+    <t>['sql', 'python', 'r', 'power bi']</t>
+  </si>
+  <si>
+    <t>Sunnyvale, CA</t>
+  </si>
+  <si>
+    <t>Walmart</t>
+  </si>
+  <si>
+    <t>['python', 'scala', 'r', 'spark', 'tensorflow']</t>
+  </si>
+  <si>
+    <t>Senior Data Scientist</t>
+  </si>
+  <si>
+    <t>Pasadena, CA</t>
+  </si>
+  <si>
+    <t>Harnham</t>
+  </si>
+  <si>
+    <t>['python', 'sql', 'git']</t>
+  </si>
+  <si>
+    <t>Houston, TX</t>
+  </si>
+  <si>
+    <t>Stripe</t>
+  </si>
+  <si>
+    <t>via IT JobServe</t>
+  </si>
+  <si>
+    <t>['python', 'sql', 'spark']</t>
+  </si>
+  <si>
+    <t>Johannesburg, South Africa</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Standard Bank Group</t>
+  </si>
+  <si>
+    <t>via Ai-Jobs.net</t>
+  </si>
+  <si>
+    <t>['sql', 'python', 'c#', 'java', 'c++', 'html', 'sas', 'sas', 'r', 'tableau', 'power bi', 'spss', 'qlik']</t>
+  </si>
+  <si>
+    <t>Berlin, Germany</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Vattenfall</t>
+  </si>
+  <si>
+    <t>['python', 'azure']</t>
+  </si>
+  <si>
+    <t>Amsterdam, Netherlands</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Devoteam</t>
+  </si>
+  <si>
+    <t>['sql', 'gcp', 'unix', 'docker']</t>
+  </si>
+  <si>
+    <t>Dallas, TX</t>
+  </si>
+  <si>
+    <t>DISYS</t>
+  </si>
+  <si>
+    <t>['sql', 'html', 'sql server', 'oracle', 'snowflake', 'power bi', 'sharepoint', 'dax', 'excel', 'jira']</t>
+  </si>
+  <si>
+    <t>Broomfield, CO</t>
+  </si>
+  <si>
+    <t>Datalab USA</t>
+  </si>
+  <si>
+    <t>['sql', 'r', 'python', 'tableau', 'excel']</t>
+  </si>
+  <si>
+    <t>Fortira Inc.</t>
+  </si>
+  <si>
+    <t>['sql', 'sas', 'sas', 'r', 'python', 'snowflake', 'hadoop']</t>
+  </si>
+  <si>
+    <t>Palo Alto, CA</t>
+  </si>
+  <si>
+    <t>Denodo Technologies</t>
+  </si>
+  <si>
+    <t>via Ladders</t>
+  </si>
+  <si>
+    <t>['power bi', 'excel', 'powerpoint', 'flow']</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0%"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1214,6 +1498,18 @@
       <u/>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1736,7 +2032,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1808,92 +2104,500 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="84">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -2300,409 +3004,6 @@
       <fill>
         <patternFill>
           <bgColor theme="3" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6901,6 +7202,416 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Connector: Curved 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E9DA5B6-1535-6C80-60C1-161731292568}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2948940" y="3870960"/>
+          <a:ext cx="1264920" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2263140" cy="1104900"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C68F3F78-CA99-2B0B-F6BE-56E079BC26B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="655320" y="4091940"/>
+          <a:ext cx="2263140" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Here, i listed both</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Job-title_short having Data Analyst, or Business Analyst, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>( Nested IF)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>=IF($A2=K$1,"Role Desired", IF($A2=L$1,"Role Desired", " Not Desired"))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Connector: Curved 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE09B7E9-4CD6-04E2-AE5F-CFD307FCC1C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="4606290" y="3966210"/>
+          <a:ext cx="472440" cy="388620"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1965960" cy="815340"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA9A9133-44A9-1ABE-570A-E631EE8EA17C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3352800" y="4297680"/>
+          <a:ext cx="1965960" cy="815340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Logical AND Operator,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>returns true if both condition</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> true otherwise false</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>=AND(A2=$K$1,A2=$L$1)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Connector: Curved 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA4D6B95-A458-CE6E-DB21-26DC3EB0B716}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="5414010" y="4088130"/>
+          <a:ext cx="739140" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1965960" cy="815340"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1125AE95-9701-3A67-601D-1CC1B0020DEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5516880" y="4770120"/>
+          <a:ext cx="1965960" cy="815340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Logical OR Operator,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>returns true if</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> any one</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> condition</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> true otherwise false</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>=OR(A2=$K$1,A2=$L$1)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="sujan budhathoki magar" refreshedDate="45724.446904629629" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="141" xr:uid="{4E96131B-90E0-4A77-81BE-E171610EE0FF}">
   <cacheSource type="worksheet">
@@ -9083,6 +9794,688 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6DCFC116-6C65-4745-AB3B-C3C1D43A972D}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="Sales Executive">
+  <location ref="G3:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" measureFilter="1">
+      <items count="142">
+        <item x="140"/>
+        <item x="139"/>
+        <item x="138"/>
+        <item x="137"/>
+        <item x="136"/>
+        <item x="135"/>
+        <item x="134"/>
+        <item x="133"/>
+        <item x="132"/>
+        <item x="131"/>
+        <item x="130"/>
+        <item x="129"/>
+        <item x="128"/>
+        <item x="4"/>
+        <item x="127"/>
+        <item x="2"/>
+        <item x="126"/>
+        <item x="125"/>
+        <item x="124"/>
+        <item x="123"/>
+        <item x="122"/>
+        <item x="121"/>
+        <item x="120"/>
+        <item x="119"/>
+        <item x="118"/>
+        <item x="117"/>
+        <item x="116"/>
+        <item x="115"/>
+        <item x="114"/>
+        <item x="113"/>
+        <item x="112"/>
+        <item x="111"/>
+        <item x="110"/>
+        <item x="109"/>
+        <item x="108"/>
+        <item x="107"/>
+        <item x="106"/>
+        <item x="105"/>
+        <item x="104"/>
+        <item x="103"/>
+        <item x="102"/>
+        <item x="101"/>
+        <item x="100"/>
+        <item x="99"/>
+        <item x="98"/>
+        <item x="97"/>
+        <item x="96"/>
+        <item x="95"/>
+        <item x="94"/>
+        <item x="93"/>
+        <item x="92"/>
+        <item x="91"/>
+        <item x="90"/>
+        <item x="89"/>
+        <item x="88"/>
+        <item x="87"/>
+        <item x="86"/>
+        <item x="85"/>
+        <item x="84"/>
+        <item x="83"/>
+        <item x="82"/>
+        <item x="81"/>
+        <item x="80"/>
+        <item x="79"/>
+        <item x="78"/>
+        <item x="77"/>
+        <item x="76"/>
+        <item x="75"/>
+        <item x="74"/>
+        <item x="73"/>
+        <item x="72"/>
+        <item x="71"/>
+        <item x="70"/>
+        <item x="69"/>
+        <item x="68"/>
+        <item x="67"/>
+        <item x="66"/>
+        <item x="65"/>
+        <item x="64"/>
+        <item x="63"/>
+        <item x="62"/>
+        <item x="61"/>
+        <item x="0"/>
+        <item x="60"/>
+        <item x="59"/>
+        <item x="58"/>
+        <item x="57"/>
+        <item x="56"/>
+        <item x="55"/>
+        <item x="54"/>
+        <item x="53"/>
+        <item x="52"/>
+        <item x="51"/>
+        <item x="50"/>
+        <item x="49"/>
+        <item x="48"/>
+        <item x="47"/>
+        <item x="46"/>
+        <item x="45"/>
+        <item x="44"/>
+        <item x="43"/>
+        <item x="42"/>
+        <item x="41"/>
+        <item x="40"/>
+        <item x="39"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="36"/>
+        <item x="35"/>
+        <item x="34"/>
+        <item x="33"/>
+        <item x="32"/>
+        <item x="31"/>
+        <item x="30"/>
+        <item x="29"/>
+        <item x="28"/>
+        <item x="27"/>
+        <item x="26"/>
+        <item x="25"/>
+        <item x="24"/>
+        <item x="23"/>
+        <item x="22"/>
+        <item x="21"/>
+        <item x="20"/>
+        <item x="19"/>
+        <item x="18"/>
+        <item x="17"/>
+        <item x="16"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="9">
+        <item h="1" x="3"/>
+        <item h="1" x="1"/>
+        <item x="0"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="10" showAll="0"/>
+    <pivotField numFmtId="10" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="79"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Target Hit % Wise" fld="10" baseField="1" baseItem="3" numFmtId="10"/>
+  </dataFields>
+  <formats count="15">
+    <format dxfId="14">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="13">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="12">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="11">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="5">
+            <x v="3"/>
+            <x v="15"/>
+            <x v="31"/>
+            <x v="59"/>
+            <x v="79"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="10">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="7">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="5">
+            <x v="3"/>
+            <x v="15"/>
+            <x v="31"/>
+            <x v="59"/>
+            <x v="79"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="5">
+            <x v="3"/>
+            <x v="15"/>
+            <x v="31"/>
+            <x v="59"/>
+            <x v="79"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="6">
+    <chartFormat chart="4" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="15"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="31"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="59"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="79"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleMedium16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="1" type="count" evalOrder="-1" id="2" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <top10 val="5" filterVal="5"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{06598D39-0150-4A85-9566-C459FE2713ED}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Sales Executive">
+  <location ref="D3:E9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" measureFilter="1">
+      <items count="142">
+        <item x="140"/>
+        <item x="139"/>
+        <item x="138"/>
+        <item x="137"/>
+        <item x="136"/>
+        <item x="135"/>
+        <item x="134"/>
+        <item x="133"/>
+        <item x="132"/>
+        <item x="131"/>
+        <item x="130"/>
+        <item x="129"/>
+        <item x="128"/>
+        <item x="4"/>
+        <item x="127"/>
+        <item x="2"/>
+        <item x="126"/>
+        <item x="125"/>
+        <item x="124"/>
+        <item x="123"/>
+        <item x="122"/>
+        <item x="121"/>
+        <item x="120"/>
+        <item x="119"/>
+        <item x="118"/>
+        <item x="117"/>
+        <item x="116"/>
+        <item x="115"/>
+        <item x="114"/>
+        <item x="113"/>
+        <item x="112"/>
+        <item x="111"/>
+        <item x="110"/>
+        <item x="109"/>
+        <item x="108"/>
+        <item x="107"/>
+        <item x="106"/>
+        <item x="105"/>
+        <item x="104"/>
+        <item x="103"/>
+        <item x="102"/>
+        <item x="101"/>
+        <item x="100"/>
+        <item x="99"/>
+        <item x="98"/>
+        <item x="97"/>
+        <item x="96"/>
+        <item x="95"/>
+        <item x="94"/>
+        <item x="93"/>
+        <item x="92"/>
+        <item x="91"/>
+        <item x="90"/>
+        <item x="89"/>
+        <item x="88"/>
+        <item x="87"/>
+        <item x="86"/>
+        <item x="85"/>
+        <item x="84"/>
+        <item x="83"/>
+        <item x="82"/>
+        <item x="81"/>
+        <item x="80"/>
+        <item x="79"/>
+        <item x="78"/>
+        <item x="77"/>
+        <item x="76"/>
+        <item x="75"/>
+        <item x="74"/>
+        <item x="73"/>
+        <item x="72"/>
+        <item x="71"/>
+        <item x="70"/>
+        <item x="69"/>
+        <item x="68"/>
+        <item x="67"/>
+        <item x="66"/>
+        <item x="65"/>
+        <item x="64"/>
+        <item x="63"/>
+        <item x="62"/>
+        <item x="61"/>
+        <item x="0"/>
+        <item x="60"/>
+        <item x="59"/>
+        <item x="58"/>
+        <item x="57"/>
+        <item x="56"/>
+        <item x="55"/>
+        <item x="54"/>
+        <item x="53"/>
+        <item x="52"/>
+        <item x="51"/>
+        <item x="50"/>
+        <item x="49"/>
+        <item x="48"/>
+        <item x="47"/>
+        <item x="46"/>
+        <item x="45"/>
+        <item x="44"/>
+        <item x="43"/>
+        <item x="42"/>
+        <item x="41"/>
+        <item x="40"/>
+        <item x="39"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="36"/>
+        <item x="35"/>
+        <item x="34"/>
+        <item x="33"/>
+        <item x="32"/>
+        <item x="31"/>
+        <item x="30"/>
+        <item x="29"/>
+        <item x="28"/>
+        <item x="27"/>
+        <item x="26"/>
+        <item x="25"/>
+        <item x="24"/>
+        <item x="23"/>
+        <item x="22"/>
+        <item x="21"/>
+        <item x="20"/>
+        <item x="19"/>
+        <item x="18"/>
+        <item x="17"/>
+        <item x="16"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="9">
+        <item h="1" x="3"/>
+        <item h="1" x="1"/>
+        <item x="0"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="10" showAll="0"/>
+    <pivotField numFmtId="10" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="74"/>
+    </i>
+    <i>
+      <x v="77"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Total Sale" fld="8" baseField="1" baseItem="3"/>
+  </dataFields>
+  <formats count="19">
+    <format dxfId="33">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="32">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="31">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="30">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="5">
+            <x v="26"/>
+            <x v="70"/>
+            <x v="72"/>
+            <x v="74"/>
+            <x v="77"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="29">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="28">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="27">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="26">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="25">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="5">
+            <x v="26"/>
+            <x v="70"/>
+            <x v="72"/>
+            <x v="74"/>
+            <x v="77"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="24">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="23">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="22">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="21">
+      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="20">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="19">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="18">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="17">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="5">
+            <x v="26"/>
+            <x v="70"/>
+            <x v="72"/>
+            <x v="74"/>
+            <x v="77"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="16">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="15">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="1" type="count" evalOrder="-1" id="2" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <top10 top="0" val="5" filterVal="5"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{99755338-67D4-4D6B-99F1-043CFC78F8C2}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Sales Executive">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
@@ -9286,16 +10679,16 @@
     <dataField name="Total Sale" fld="8" baseField="1" baseItem="3"/>
   </dataFields>
   <formats count="24">
-    <format dxfId="23">
+    <format dxfId="57">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="56">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="55">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="54">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="5">
@@ -9308,13 +10701,13 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="52">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="51">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="5">
@@ -9327,10 +10720,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="50">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="49">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="5">
@@ -9343,10 +10736,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="48">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="47">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="5">
@@ -9359,7 +10752,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="46">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="5">
@@ -9372,19 +10765,19 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="45">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="44">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="43">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="42">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="41">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="5">
@@ -9397,7 +10790,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="40">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="5">
@@ -9410,16 +10803,16 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="39">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="38">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="37">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="5">
@@ -9432,10 +10825,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -9471,7 +10864,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{20AEF9FF-EABD-4A1E-A670-3AE3CD53BA5A}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Sales Executive">
   <location ref="J3:K8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
@@ -9672,687 +11065,6 @@
     <dataField name="Away From Target % WIse" fld="11" baseField="1" baseItem="26" numFmtId="10"/>
   </dataFields>
   <formats count="15">
-    <format dxfId="38">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="37">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="36">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="35">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="5">
-            <x v="26"/>
-            <x v="70"/>
-            <x v="72"/>
-            <x v="74"/>
-            <x v="77"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="34">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="33">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="32">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="31">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="5">
-            <x v="26"/>
-            <x v="70"/>
-            <x v="72"/>
-            <x v="74"/>
-            <x v="77"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="30">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="29">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="28">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="27">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="26">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="25">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="5">
-            <x v="26"/>
-            <x v="70"/>
-            <x v="72"/>
-            <x v="74"/>
-            <x v="77"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="24">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleMedium16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="1" type="count" evalOrder="-1" id="2" iMeasureFld="0">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <top10 val="5" filterVal="5"/>
-        </filterColumn>
-      </autoFilter>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6DCFC116-6C65-4745-AB3B-C3C1D43A972D}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="Sales Executive">
-  <location ref="G3:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" measureFilter="1">
-      <items count="142">
-        <item x="140"/>
-        <item x="139"/>
-        <item x="138"/>
-        <item x="137"/>
-        <item x="136"/>
-        <item x="135"/>
-        <item x="134"/>
-        <item x="133"/>
-        <item x="132"/>
-        <item x="131"/>
-        <item x="130"/>
-        <item x="129"/>
-        <item x="128"/>
-        <item x="4"/>
-        <item x="127"/>
-        <item x="2"/>
-        <item x="126"/>
-        <item x="125"/>
-        <item x="124"/>
-        <item x="123"/>
-        <item x="122"/>
-        <item x="121"/>
-        <item x="120"/>
-        <item x="119"/>
-        <item x="118"/>
-        <item x="117"/>
-        <item x="116"/>
-        <item x="115"/>
-        <item x="114"/>
-        <item x="113"/>
-        <item x="112"/>
-        <item x="111"/>
-        <item x="110"/>
-        <item x="109"/>
-        <item x="108"/>
-        <item x="107"/>
-        <item x="106"/>
-        <item x="105"/>
-        <item x="104"/>
-        <item x="103"/>
-        <item x="102"/>
-        <item x="101"/>
-        <item x="100"/>
-        <item x="99"/>
-        <item x="98"/>
-        <item x="97"/>
-        <item x="96"/>
-        <item x="95"/>
-        <item x="94"/>
-        <item x="93"/>
-        <item x="92"/>
-        <item x="91"/>
-        <item x="90"/>
-        <item x="89"/>
-        <item x="88"/>
-        <item x="87"/>
-        <item x="86"/>
-        <item x="85"/>
-        <item x="84"/>
-        <item x="83"/>
-        <item x="82"/>
-        <item x="81"/>
-        <item x="80"/>
-        <item x="79"/>
-        <item x="78"/>
-        <item x="77"/>
-        <item x="76"/>
-        <item x="75"/>
-        <item x="74"/>
-        <item x="73"/>
-        <item x="72"/>
-        <item x="71"/>
-        <item x="70"/>
-        <item x="69"/>
-        <item x="68"/>
-        <item x="67"/>
-        <item x="66"/>
-        <item x="65"/>
-        <item x="64"/>
-        <item x="63"/>
-        <item x="62"/>
-        <item x="61"/>
-        <item x="0"/>
-        <item x="60"/>
-        <item x="59"/>
-        <item x="58"/>
-        <item x="57"/>
-        <item x="56"/>
-        <item x="55"/>
-        <item x="54"/>
-        <item x="53"/>
-        <item x="52"/>
-        <item x="51"/>
-        <item x="50"/>
-        <item x="49"/>
-        <item x="48"/>
-        <item x="47"/>
-        <item x="46"/>
-        <item x="45"/>
-        <item x="44"/>
-        <item x="43"/>
-        <item x="42"/>
-        <item x="41"/>
-        <item x="40"/>
-        <item x="39"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="36"/>
-        <item x="35"/>
-        <item x="34"/>
-        <item x="33"/>
-        <item x="32"/>
-        <item x="31"/>
-        <item x="30"/>
-        <item x="29"/>
-        <item x="28"/>
-        <item x="27"/>
-        <item x="26"/>
-        <item x="25"/>
-        <item x="24"/>
-        <item x="23"/>
-        <item x="22"/>
-        <item x="21"/>
-        <item x="20"/>
-        <item x="19"/>
-        <item x="18"/>
-        <item x="17"/>
-        <item x="16"/>
-        <item x="15"/>
-        <item x="14"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="10"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="9">
-        <item h="1" x="3"/>
-        <item h="1" x="1"/>
-        <item x="0"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="10" showAll="0"/>
-    <pivotField numFmtId="10" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
-      <x v="79"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Target Hit % Wise" fld="10" baseField="1" baseItem="3" numFmtId="10"/>
-  </dataFields>
-  <formats count="15">
-    <format dxfId="53">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="52">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="51">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="50">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="5">
-            <x v="3"/>
-            <x v="15"/>
-            <x v="31"/>
-            <x v="59"/>
-            <x v="79"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="49">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="48">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="47">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="46">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="5">
-            <x v="3"/>
-            <x v="15"/>
-            <x v="31"/>
-            <x v="59"/>
-            <x v="79"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="45">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="44">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="43">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="42">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="41">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="40">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="5">
-            <x v="3"/>
-            <x v="15"/>
-            <x v="31"/>
-            <x v="59"/>
-            <x v="79"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="39">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="6">
-    <chartFormat chart="4" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="15"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="31"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="59"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="79"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleMedium16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="1" type="count" evalOrder="-1" id="2" iMeasureFld="0">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <top10 val="5" filterVal="5"/>
-        </filterColumn>
-      </autoFilter>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{06598D39-0150-4A85-9566-C459FE2713ED}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Sales Executive">
-  <location ref="D3:E9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" measureFilter="1">
-      <items count="142">
-        <item x="140"/>
-        <item x="139"/>
-        <item x="138"/>
-        <item x="137"/>
-        <item x="136"/>
-        <item x="135"/>
-        <item x="134"/>
-        <item x="133"/>
-        <item x="132"/>
-        <item x="131"/>
-        <item x="130"/>
-        <item x="129"/>
-        <item x="128"/>
-        <item x="4"/>
-        <item x="127"/>
-        <item x="2"/>
-        <item x="126"/>
-        <item x="125"/>
-        <item x="124"/>
-        <item x="123"/>
-        <item x="122"/>
-        <item x="121"/>
-        <item x="120"/>
-        <item x="119"/>
-        <item x="118"/>
-        <item x="117"/>
-        <item x="116"/>
-        <item x="115"/>
-        <item x="114"/>
-        <item x="113"/>
-        <item x="112"/>
-        <item x="111"/>
-        <item x="110"/>
-        <item x="109"/>
-        <item x="108"/>
-        <item x="107"/>
-        <item x="106"/>
-        <item x="105"/>
-        <item x="104"/>
-        <item x="103"/>
-        <item x="102"/>
-        <item x="101"/>
-        <item x="100"/>
-        <item x="99"/>
-        <item x="98"/>
-        <item x="97"/>
-        <item x="96"/>
-        <item x="95"/>
-        <item x="94"/>
-        <item x="93"/>
-        <item x="92"/>
-        <item x="91"/>
-        <item x="90"/>
-        <item x="89"/>
-        <item x="88"/>
-        <item x="87"/>
-        <item x="86"/>
-        <item x="85"/>
-        <item x="84"/>
-        <item x="83"/>
-        <item x="82"/>
-        <item x="81"/>
-        <item x="80"/>
-        <item x="79"/>
-        <item x="78"/>
-        <item x="77"/>
-        <item x="76"/>
-        <item x="75"/>
-        <item x="74"/>
-        <item x="73"/>
-        <item x="72"/>
-        <item x="71"/>
-        <item x="70"/>
-        <item x="69"/>
-        <item x="68"/>
-        <item x="67"/>
-        <item x="66"/>
-        <item x="65"/>
-        <item x="64"/>
-        <item x="63"/>
-        <item x="62"/>
-        <item x="61"/>
-        <item x="0"/>
-        <item x="60"/>
-        <item x="59"/>
-        <item x="58"/>
-        <item x="57"/>
-        <item x="56"/>
-        <item x="55"/>
-        <item x="54"/>
-        <item x="53"/>
-        <item x="52"/>
-        <item x="51"/>
-        <item x="50"/>
-        <item x="49"/>
-        <item x="48"/>
-        <item x="47"/>
-        <item x="46"/>
-        <item x="45"/>
-        <item x="44"/>
-        <item x="43"/>
-        <item x="42"/>
-        <item x="41"/>
-        <item x="40"/>
-        <item x="39"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="36"/>
-        <item x="35"/>
-        <item x="34"/>
-        <item x="33"/>
-        <item x="32"/>
-        <item x="31"/>
-        <item x="30"/>
-        <item x="29"/>
-        <item x="28"/>
-        <item x="27"/>
-        <item x="26"/>
-        <item x="25"/>
-        <item x="24"/>
-        <item x="23"/>
-        <item x="22"/>
-        <item x="21"/>
-        <item x="20"/>
-        <item x="19"/>
-        <item x="18"/>
-        <item x="17"/>
-        <item x="16"/>
-        <item x="15"/>
-        <item x="14"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="10"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="9">
-        <item h="1" x="3"/>
-        <item h="1" x="1"/>
-        <item x="0"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="10" showAll="0"/>
-    <pivotField numFmtId="10" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="70"/>
-    </i>
-    <i>
-      <x v="72"/>
-    </i>
-    <i>
-      <x v="74"/>
-    </i>
-    <i>
-      <x v="77"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Total Sale" fld="8" baseField="1" baseItem="3"/>
-  </dataFields>
-  <formats count="19">
     <format dxfId="72">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
@@ -10376,18 +11088,15 @@
       </pivotArea>
     </format>
     <format dxfId="68">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
     <format dxfId="67">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="66">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
     <format dxfId="65">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="64">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="5">
@@ -10400,28 +11109,22 @@
         </references>
       </pivotArea>
     </format>
+    <format dxfId="64">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
     <format dxfId="63">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
     <format dxfId="62">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="61">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="60">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="61">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="60">
-      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
-    </format>
     <format dxfId="59">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="58">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="57">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="56">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="5">
@@ -10434,19 +11137,27 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="55">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="54">
+    <format dxfId="58">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleMedium16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <filters count="1">
     <filter fld="1" type="count" evalOrder="-1" id="2" iMeasureFld="0">
       <autoFilter ref="A1">
         <filterColumn colId="0">
-          <top10 top="0" val="5" filterVal="5"/>
+          <top10 val="5" filterVal="5"/>
         </filterColumn>
       </autoFilter>
     </filter>
@@ -11734,14 +12445,15 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId5"/>
-  <legacyDrawing r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
+  <legacyDrawing r:id="rId7"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId7" name="Check Box 1">
+            <control shapeId="2049" r:id="rId8" name="Check Box 1">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" macro="[0]!SlicerConnectDashboard">
                 <anchor moveWithCells="1">
                   <from>
@@ -11763,7 +12475,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2050" r:id="rId8" name="Check Box 2">
+            <control shapeId="2050" r:id="rId9" name="Check Box 2">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" macro="[0]!SlicerConnectDashboard">
                 <anchor moveWithCells="1">
                   <from>
@@ -11785,7 +12497,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2051" r:id="rId9" name="Check Box 3">
+            <control shapeId="2051" r:id="rId10" name="Check Box 3">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" macro="[0]!SlicerConnectDashboard">
                 <anchor moveWithCells="1">
                   <from>
@@ -11807,7 +12519,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2052" r:id="rId10" name="Check Box 4">
+            <control shapeId="2052" r:id="rId11" name="Check Box 4">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" macro="[0]!SlicerConnectDashboard">
                 <anchor moveWithCells="1">
                   <from>
@@ -11833,7 +12545,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
       <x14:slicerList>
-        <x14:slicer r:id="rId11"/>
+        <x14:slicer r:id="rId12"/>
       </x14:slicerList>
     </ext>
   </extLst>
@@ -17408,7 +18120,7 @@
         <v>8.8888888888888892E-2</v>
       </c>
       <c r="I4" s="49">
-        <f t="shared" ref="I4:I12" si="4">H4*D4+D4</f>
+        <f t="shared" ref="I4:I11" si="4">H4*D4+D4</f>
         <v>147000</v>
       </c>
       <c r="J4" s="49" t="b">
@@ -17486,7 +18198,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="49" t="b">
-        <f t="shared" ref="O4:O12" si="9">N5=1</f>
+        <f t="shared" ref="O5:O12" si="9">N5=1</f>
         <v>0</v>
       </c>
     </row>
@@ -34328,11 +35040,11 @@
         <v>10000</v>
       </c>
       <c r="F3" s="68" t="b">
-        <f>$L$3&lt;=C3</f>
+        <f t="shared" ref="F3:F12" si="0">$L$3&lt;=C3</f>
         <v>1</v>
       </c>
       <c r="G3" s="68" t="b">
-        <f>D3&gt;=$L$4</f>
+        <f t="shared" ref="G3:G12" si="1">D3&gt;=$L$4</f>
         <v>1</v>
       </c>
       <c r="H3" s="56" t="b">
@@ -34363,18 +35075,18 @@
         <v>12000</v>
       </c>
       <c r="F4" s="68" t="b">
-        <f>$L$3&lt;=C4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G4" s="68" t="b">
-        <f>D4&gt;=$L$4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H4" s="56" t="b">
         <v>0</v>
       </c>
       <c r="I4" s="56" t="b">
-        <f t="shared" ref="I4:I12" si="0">AND(F4,G4)</f>
+        <f t="shared" ref="I4:I12" si="2">AND(F4,G4)</f>
         <v>0</v>
       </c>
       <c r="K4" s="46" t="s">
@@ -34398,18 +35110,18 @@
         <v>5000</v>
       </c>
       <c r="F5" s="68" t="b">
-        <f>$L$3&lt;=C5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G5" s="68" t="b">
-        <f>D5&gt;=$L$4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H5" s="56" t="b">
         <v>0</v>
       </c>
       <c r="I5" s="56" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -34427,18 +35139,18 @@
         <v>8000</v>
       </c>
       <c r="F6" s="68" t="b">
-        <f>$L$3&lt;=C6</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G6" s="68" t="b">
-        <f>D6&gt;=$L$4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H6" s="56" t="b">
         <v>1</v>
       </c>
       <c r="I6" s="56" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -34456,18 +35168,18 @@
         <v>11000</v>
       </c>
       <c r="F7" s="68" t="b">
-        <f>$L$3&lt;=C7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G7" s="68" t="b">
-        <f>D7&gt;=$L$4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H7" s="56" t="b">
         <v>0</v>
       </c>
       <c r="I7" s="56" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -34485,18 +35197,18 @@
         <v>7000</v>
       </c>
       <c r="F8" s="68" t="b">
-        <f>$L$3&lt;=C8</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G8" s="68" t="b">
-        <f>D8&gt;=$L$4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H8" s="56" t="b">
         <v>1</v>
       </c>
       <c r="I8" s="56" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -34514,18 +35226,18 @@
         <v>15000</v>
       </c>
       <c r="F9" s="68" t="b">
-        <f>$L$3&lt;=C9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G9" s="68" t="b">
-        <f>D9&gt;=$L$4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H9" s="56" t="b">
         <v>1</v>
       </c>
       <c r="I9" s="56" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -34543,18 +35255,18 @@
         <v>13000</v>
       </c>
       <c r="F10" s="68" t="b">
-        <f>$L$3&lt;=C10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G10" s="68" t="b">
-        <f>D10&gt;=$L$4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H10" s="56" t="b">
         <v>1</v>
       </c>
       <c r="I10" s="56" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -34572,18 +35284,18 @@
         <v>14000</v>
       </c>
       <c r="F11" s="68" t="b">
-        <f>$L$3&lt;=C11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G11" s="68" t="b">
-        <f>D11&gt;=$L$4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H11" s="56" t="b">
         <v>0</v>
       </c>
       <c r="I11" s="56" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -34601,18 +35313,18 @@
         <v>9000</v>
       </c>
       <c r="F12" s="68" t="b">
-        <f>$L$3&lt;=C12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G12" s="68" t="b">
-        <f>D12&gt;=$L$4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H12" s="56" t="b">
         <v>1</v>
       </c>
       <c r="I12" s="56" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -34625,11 +35337,11 @@
         <v>5.3</v>
       </c>
       <c r="D13" s="61">
-        <f t="shared" ref="D13:E13" si="1">(D3+D4+D5+D6+D7+D8+D9+D10+D11+D12)/10</f>
+        <f t="shared" ref="D13:E13" si="3">(D3+D4+D5+D6+D7+D8+D9+D10+D11+D12)/10</f>
         <v>119000</v>
       </c>
       <c r="E13" s="61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10400</v>
       </c>
       <c r="F13" s="61"/>
@@ -34644,11 +35356,11 @@
         <v>5.3</v>
       </c>
       <c r="D14" s="63">
-        <f t="shared" ref="D14:E14" si="2">AVERAGE(D3:D12)</f>
+        <f t="shared" ref="D14:E14" si="4">AVERAGE(D3:D12)</f>
         <v>119000</v>
       </c>
       <c r="E14" s="63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10400</v>
       </c>
       <c r="F14" s="63"/>
@@ -34663,11 +35375,11 @@
         <v>10</v>
       </c>
       <c r="D15" s="61">
-        <f t="shared" ref="D15:E15" si="3">COUNT(D3:D12)</f>
+        <f t="shared" ref="D15:E15" si="5">COUNT(D3:D12)</f>
         <v>10</v>
       </c>
       <c r="E15" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="F15" s="61"/>
@@ -34718,7 +35430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C819543-793F-41F4-BCCB-1F21E686F54B}">
   <dimension ref="A1:XEV16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -51424,4 +52136,1359 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782917F5-43B0-451C-A48B-B0B09DC50DC4}">
+  <dimension ref="A1:R21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="23" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="39.6640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.21875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="70" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="73" t="s">
+        <v>374</v>
+      </c>
+      <c r="B1" s="73" t="s">
+        <v>375</v>
+      </c>
+      <c r="C1" s="73" t="s">
+        <v>376</v>
+      </c>
+      <c r="D1" s="73" t="s">
+        <v>377</v>
+      </c>
+      <c r="E1" s="73" t="s">
+        <v>378</v>
+      </c>
+      <c r="F1" s="73" t="s">
+        <v>379</v>
+      </c>
+      <c r="G1" s="73" t="s">
+        <v>380</v>
+      </c>
+      <c r="H1" s="73" t="s">
+        <v>381</v>
+      </c>
+      <c r="I1" s="73" t="s">
+        <v>382</v>
+      </c>
+      <c r="J1" s="73" t="s">
+        <v>383</v>
+      </c>
+      <c r="K1" s="73" t="s">
+        <v>356</v>
+      </c>
+      <c r="L1" s="73" t="s">
+        <v>384</v>
+      </c>
+      <c r="M1" s="73" t="s">
+        <v>385</v>
+      </c>
+      <c r="N1" s="73" t="s">
+        <v>386</v>
+      </c>
+      <c r="O1" s="73" t="s">
+        <v>387</v>
+      </c>
+      <c r="P1" s="73" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q1" s="73">
+        <v>85000</v>
+      </c>
+      <c r="R1" s="73" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="74" t="s">
+        <v>389</v>
+      </c>
+      <c r="B2" s="75">
+        <v>44996.547291666669</v>
+      </c>
+      <c r="C2" s="74" t="s">
+        <v>390</v>
+      </c>
+      <c r="D2" s="74" t="s">
+        <v>391</v>
+      </c>
+      <c r="E2" s="74" t="s">
+        <v>392</v>
+      </c>
+      <c r="F2" s="74" t="s">
+        <v>393</v>
+      </c>
+      <c r="G2" s="74" t="s">
+        <v>394</v>
+      </c>
+      <c r="H2" s="74">
+        <v>135000</v>
+      </c>
+      <c r="I2" s="74" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="74" t="s">
+        <v>395</v>
+      </c>
+      <c r="K2" s="74" t="str">
+        <f>IF($A2=K$1,"Role Desired", "Not Desired ")</f>
+        <v xml:space="preserve">Not Desired </v>
+      </c>
+      <c r="L2" s="74" t="str">
+        <f>IF($A2=L$1,"Role Desired", "Not Desired ")</f>
+        <v xml:space="preserve">Not Desired </v>
+      </c>
+      <c r="M2" s="74" t="str">
+        <f>IF($A2=K$1,"Role Desired", IF($A2=L$1,"Role Desired", " Not Desired"))</f>
+        <v xml:space="preserve"> Not Desired</v>
+      </c>
+      <c r="N2" s="74" t="b">
+        <f>AND(A2=$K$1,A2=$L$1)</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="74" t="b">
+        <f>OR($A2=K$1,$A2=L$1)</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="74" t="str">
+        <f>IF(OR(A2=$K$1,A2=$L$1),"Role Desired", "Not Desired")</f>
+        <v>Not Desired</v>
+      </c>
+      <c r="Q2" s="74" t="str">
+        <f>IF($H2&gt;$Q$1, "Salary &gt; 85K", "Salary Low")</f>
+        <v>Salary &gt; 85K</v>
+      </c>
+      <c r="R2" s="74" t="e">
+        <f ca="1">IFS(H21=" ","No Data",H21&gt;=$Q$1,"Salary &gt; 85K",TRUE,"Salary low")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="74" t="s">
+        <v>356</v>
+      </c>
+      <c r="B3" s="75">
+        <v>45097.915243055555</v>
+      </c>
+      <c r="C3" s="74" t="s">
+        <v>396</v>
+      </c>
+      <c r="D3" s="74" t="s">
+        <v>397</v>
+      </c>
+      <c r="E3" s="74" t="s">
+        <v>398</v>
+      </c>
+      <c r="F3" s="74" t="s">
+        <v>399</v>
+      </c>
+      <c r="G3" s="74" t="s">
+        <v>400</v>
+      </c>
+      <c r="H3" s="74">
+        <v>35000</v>
+      </c>
+      <c r="I3" s="74" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="74" t="s">
+        <v>401</v>
+      </c>
+      <c r="K3" s="74" t="str">
+        <f t="shared" ref="K3:L21" si="0">IF($A3=K$1,"Role Desired", "Not Desired ")</f>
+        <v>Role Desired</v>
+      </c>
+      <c r="L3" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Not Desired </v>
+      </c>
+      <c r="M3" s="74" t="str">
+        <f t="shared" ref="M3:M21" si="1">IF($A3=K$1,"Role Desired", IF($A3=L$1,"Role Desired", " Not Desired"))</f>
+        <v>Role Desired</v>
+      </c>
+      <c r="N3" s="74" t="b">
+        <f t="shared" ref="N3:N21" si="2">AND(A3=$K$1,A3=$L$1)</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="74" t="b">
+        <f t="shared" ref="O3:O21" si="3">OR($A3=K$1,$A3=L$1)</f>
+        <v>1</v>
+      </c>
+      <c r="P3" s="74" t="str">
+        <f t="shared" ref="P3:P21" si="4">IF(OR(A3=$K$1,A3=$L$1),"Role Desired", "Not Desired")</f>
+        <v>Role Desired</v>
+      </c>
+      <c r="Q3" s="74" t="str">
+        <f t="shared" ref="Q3:Q21" si="5">IF($H3&gt;$Q$1, "Salary &gt; 85K", "Salary Low")</f>
+        <v>Salary Low</v>
+      </c>
+      <c r="R3" s="74" t="e">
+        <f t="shared" ref="R3:R21" ca="1" si="6">IFS(H3=" ", "No Data", H3&gt;=$Q$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="74" t="s">
+        <v>356</v>
+      </c>
+      <c r="B4" s="75">
+        <v>45173.250416666669</v>
+      </c>
+      <c r="C4" s="74" t="s">
+        <v>402</v>
+      </c>
+      <c r="D4" s="74" t="s">
+        <v>391</v>
+      </c>
+      <c r="E4" s="74" t="s">
+        <v>403</v>
+      </c>
+      <c r="F4" s="74" t="s">
+        <v>404</v>
+      </c>
+      <c r="G4" s="74" t="s">
+        <v>394</v>
+      </c>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="74" t="s">
+        <v>405</v>
+      </c>
+      <c r="K4" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="L4" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Not Desired </v>
+      </c>
+      <c r="M4" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="N4" s="74" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="74" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P4" s="74" t="str">
+        <f t="shared" si="4"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="Q4" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v>Salary Low</v>
+      </c>
+      <c r="R4" s="74" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="74" t="s">
+        <v>354</v>
+      </c>
+      <c r="B5" s="75">
+        <v>45156.253321759257</v>
+      </c>
+      <c r="C5" s="74" t="s">
+        <v>406</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>391</v>
+      </c>
+      <c r="E5" s="74" t="s">
+        <v>407</v>
+      </c>
+      <c r="F5" s="74" t="s">
+        <v>404</v>
+      </c>
+      <c r="G5" s="74" t="s">
+        <v>394</v>
+      </c>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="74" t="s">
+        <v>408</v>
+      </c>
+      <c r="K5" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Not Desired </v>
+      </c>
+      <c r="L5" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Not Desired </v>
+      </c>
+      <c r="M5" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> Not Desired</v>
+      </c>
+      <c r="N5" s="74" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="74" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="74" t="str">
+        <f t="shared" si="4"/>
+        <v>Not Desired</v>
+      </c>
+      <c r="Q5" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v>Salary Low</v>
+      </c>
+      <c r="R5" s="74" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="74" t="s">
+        <v>409</v>
+      </c>
+      <c r="B6" s="75">
+        <v>45147.802951388891</v>
+      </c>
+      <c r="C6" s="74" t="s">
+        <v>410</v>
+      </c>
+      <c r="D6" s="74" t="s">
+        <v>411</v>
+      </c>
+      <c r="E6" s="74" t="s">
+        <v>412</v>
+      </c>
+      <c r="F6" s="74" t="s">
+        <v>404</v>
+      </c>
+      <c r="G6" s="74" t="s">
+        <v>394</v>
+      </c>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="74" t="s">
+        <v>413</v>
+      </c>
+      <c r="K6" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Not Desired </v>
+      </c>
+      <c r="L6" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Not Desired </v>
+      </c>
+      <c r="M6" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> Not Desired</v>
+      </c>
+      <c r="N6" s="74" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="74" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="74" t="str">
+        <f t="shared" si="4"/>
+        <v>Not Desired</v>
+      </c>
+      <c r="Q6" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v>Salary Low</v>
+      </c>
+      <c r="R6" s="74" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="74" t="s">
+        <v>354</v>
+      </c>
+      <c r="B7" s="75">
+        <v>45202.753101851849</v>
+      </c>
+      <c r="C7" s="74" t="s">
+        <v>414</v>
+      </c>
+      <c r="D7" s="74" t="s">
+        <v>391</v>
+      </c>
+      <c r="E7" s="74" t="s">
+        <v>415</v>
+      </c>
+      <c r="F7" s="74" t="s">
+        <v>404</v>
+      </c>
+      <c r="G7" s="74" t="s">
+        <v>416</v>
+      </c>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="74" t="s">
+        <v>417</v>
+      </c>
+      <c r="K7" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Not Desired </v>
+      </c>
+      <c r="L7" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Not Desired </v>
+      </c>
+      <c r="M7" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> Not Desired</v>
+      </c>
+      <c r="N7" s="74" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="74" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="74" t="str">
+        <f t="shared" si="4"/>
+        <v>Not Desired</v>
+      </c>
+      <c r="Q7" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v>Salary Low</v>
+      </c>
+      <c r="R7" s="74" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="74" t="s">
+        <v>356</v>
+      </c>
+      <c r="B8" s="75">
+        <v>44949.850462962961</v>
+      </c>
+      <c r="C8" s="74" t="s">
+        <v>418</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>391</v>
+      </c>
+      <c r="E8" s="74" t="s">
+        <v>419</v>
+      </c>
+      <c r="F8" s="74" t="s">
+        <v>393</v>
+      </c>
+      <c r="G8" s="74" t="s">
+        <v>394</v>
+      </c>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="74" t="s">
+        <v>420</v>
+      </c>
+      <c r="K8" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="L8" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Not Desired </v>
+      </c>
+      <c r="M8" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="N8" s="74" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="74" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P8" s="74" t="str">
+        <f t="shared" si="4"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="Q8" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v>Salary Low</v>
+      </c>
+      <c r="R8" s="74" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="74" t="s">
+        <v>356</v>
+      </c>
+      <c r="B9" s="75">
+        <v>45001.627175925925</v>
+      </c>
+      <c r="C9" s="74" t="s">
+        <v>421</v>
+      </c>
+      <c r="D9" s="74" t="s">
+        <v>391</v>
+      </c>
+      <c r="E9" s="74" t="s">
+        <v>422</v>
+      </c>
+      <c r="F9" s="74" t="s">
+        <v>423</v>
+      </c>
+      <c r="G9" s="74" t="s">
+        <v>394</v>
+      </c>
+      <c r="H9" s="74">
+        <v>115000</v>
+      </c>
+      <c r="I9" s="74" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="74" t="s">
+        <v>424</v>
+      </c>
+      <c r="K9" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="L9" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Not Desired </v>
+      </c>
+      <c r="M9" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="N9" s="74" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="74" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P9" s="74" t="str">
+        <f t="shared" si="4"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="Q9" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v>Salary &gt; 85K</v>
+      </c>
+      <c r="R9" s="74" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="74" t="s">
+        <v>356</v>
+      </c>
+      <c r="B10" s="75">
+        <v>45041.375868055555</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>425</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>391</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>426</v>
+      </c>
+      <c r="F10" s="74" t="s">
+        <v>393</v>
+      </c>
+      <c r="G10" s="74" t="s">
+        <v>400</v>
+      </c>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="74" t="s">
+        <v>427</v>
+      </c>
+      <c r="K10" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="L10" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Not Desired </v>
+      </c>
+      <c r="M10" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="N10" s="74" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="74" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P10" s="74" t="str">
+        <f t="shared" si="4"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="Q10" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v>Salary Low</v>
+      </c>
+      <c r="R10" s="74" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="74" t="s">
+        <v>356</v>
+      </c>
+      <c r="B11" s="75">
+        <v>45106.587094907409</v>
+      </c>
+      <c r="C11" s="74" t="s">
+        <v>428</v>
+      </c>
+      <c r="D11" s="74" t="s">
+        <v>391</v>
+      </c>
+      <c r="E11" s="74" t="s">
+        <v>429</v>
+      </c>
+      <c r="F11" s="74" t="s">
+        <v>430</v>
+      </c>
+      <c r="G11" s="74" t="s">
+        <v>394</v>
+      </c>
+      <c r="H11" s="74">
+        <v>105000</v>
+      </c>
+      <c r="I11" s="74" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="74" t="s">
+        <v>431</v>
+      </c>
+      <c r="K11" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="L11" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Not Desired </v>
+      </c>
+      <c r="M11" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="N11" s="74" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="74" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P11" s="74" t="str">
+        <f t="shared" si="4"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="Q11" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v>Salary &gt; 85K</v>
+      </c>
+      <c r="R11" s="74" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="74" t="s">
+        <v>354</v>
+      </c>
+      <c r="B12" s="75">
+        <v>45029.919687499998</v>
+      </c>
+      <c r="C12" s="74" t="s">
+        <v>432</v>
+      </c>
+      <c r="D12" s="74" t="s">
+        <v>391</v>
+      </c>
+      <c r="E12" s="74" t="s">
+        <v>433</v>
+      </c>
+      <c r="F12" s="74" t="s">
+        <v>423</v>
+      </c>
+      <c r="G12" s="74" t="s">
+        <v>394</v>
+      </c>
+      <c r="H12" s="74">
+        <v>195000</v>
+      </c>
+      <c r="I12" s="74" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="74" t="s">
+        <v>434</v>
+      </c>
+      <c r="K12" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Not Desired </v>
+      </c>
+      <c r="L12" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Not Desired </v>
+      </c>
+      <c r="M12" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> Not Desired</v>
+      </c>
+      <c r="N12" s="74" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="74" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="74" t="str">
+        <f t="shared" si="4"/>
+        <v>Not Desired</v>
+      </c>
+      <c r="Q12" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v>Salary &gt; 85K</v>
+      </c>
+      <c r="R12" s="74" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="74" t="s">
+        <v>435</v>
+      </c>
+      <c r="B13" s="75">
+        <v>45091.502789351849</v>
+      </c>
+      <c r="C13" s="74" t="s">
+        <v>436</v>
+      </c>
+      <c r="D13" s="74" t="s">
+        <v>391</v>
+      </c>
+      <c r="E13" s="74" t="s">
+        <v>437</v>
+      </c>
+      <c r="F13" s="74" t="s">
+        <v>423</v>
+      </c>
+      <c r="G13" s="74" t="s">
+        <v>394</v>
+      </c>
+      <c r="H13" s="74">
+        <v>165000</v>
+      </c>
+      <c r="I13" s="74" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="74" t="s">
+        <v>438</v>
+      </c>
+      <c r="K13" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Not Desired </v>
+      </c>
+      <c r="L13" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Not Desired </v>
+      </c>
+      <c r="M13" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> Not Desired</v>
+      </c>
+      <c r="N13" s="74" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="74" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="74" t="str">
+        <f t="shared" si="4"/>
+        <v>Not Desired</v>
+      </c>
+      <c r="Q13" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v>Salary &gt; 85K</v>
+      </c>
+      <c r="R13" s="74" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="74" t="s">
+        <v>354</v>
+      </c>
+      <c r="B14" s="75">
+        <v>45175.543124999997</v>
+      </c>
+      <c r="C14" s="74" t="s">
+        <v>439</v>
+      </c>
+      <c r="D14" s="74" t="s">
+        <v>391</v>
+      </c>
+      <c r="E14" s="74" t="s">
+        <v>440</v>
+      </c>
+      <c r="F14" s="74" t="s">
+        <v>441</v>
+      </c>
+      <c r="G14" s="74" t="s">
+        <v>394</v>
+      </c>
+      <c r="H14" s="74">
+        <v>281450.5</v>
+      </c>
+      <c r="I14" s="74" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="74" t="s">
+        <v>442</v>
+      </c>
+      <c r="K14" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Not Desired </v>
+      </c>
+      <c r="L14" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Not Desired </v>
+      </c>
+      <c r="M14" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> Not Desired</v>
+      </c>
+      <c r="N14" s="74" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="74" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="74" t="str">
+        <f t="shared" si="4"/>
+        <v>Not Desired</v>
+      </c>
+      <c r="Q14" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v>Salary &gt; 85K</v>
+      </c>
+      <c r="R14" s="74" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="74" t="s">
+        <v>354</v>
+      </c>
+      <c r="B15" s="75">
+        <v>45117.778391203705</v>
+      </c>
+      <c r="C15" s="74" t="s">
+        <v>443</v>
+      </c>
+      <c r="D15" s="74" t="s">
+        <v>444</v>
+      </c>
+      <c r="E15" s="74" t="s">
+        <v>445</v>
+      </c>
+      <c r="F15" s="74" t="s">
+        <v>446</v>
+      </c>
+      <c r="G15" s="74" t="s">
+        <v>394</v>
+      </c>
+      <c r="H15" s="74">
+        <v>70000</v>
+      </c>
+      <c r="I15" s="74" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="74" t="s">
+        <v>447</v>
+      </c>
+      <c r="K15" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Not Desired </v>
+      </c>
+      <c r="L15" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Not Desired </v>
+      </c>
+      <c r="M15" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> Not Desired</v>
+      </c>
+      <c r="N15" s="74" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="74" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="74" t="str">
+        <f t="shared" si="4"/>
+        <v>Not Desired</v>
+      </c>
+      <c r="Q15" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v>Salary Low</v>
+      </c>
+      <c r="R15" s="74" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="74" t="s">
+        <v>358</v>
+      </c>
+      <c r="B16" s="75">
+        <v>44938.614351851851</v>
+      </c>
+      <c r="C16" s="74" t="s">
+        <v>448</v>
+      </c>
+      <c r="D16" s="74" t="s">
+        <v>449</v>
+      </c>
+      <c r="E16" s="74" t="s">
+        <v>450</v>
+      </c>
+      <c r="F16" s="74" t="s">
+        <v>446</v>
+      </c>
+      <c r="G16" s="74" t="s">
+        <v>394</v>
+      </c>
+      <c r="H16" s="74">
+        <v>98301.5</v>
+      </c>
+      <c r="I16" s="74" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="74" t="s">
+        <v>451</v>
+      </c>
+      <c r="K16" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Not Desired </v>
+      </c>
+      <c r="L16" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Not Desired </v>
+      </c>
+      <c r="M16" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> Not Desired</v>
+      </c>
+      <c r="N16" s="74" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="74" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="74" t="str">
+        <f t="shared" si="4"/>
+        <v>Not Desired</v>
+      </c>
+      <c r="Q16" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v>Salary &gt; 85K</v>
+      </c>
+      <c r="R16" s="74" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="74" t="s">
+        <v>358</v>
+      </c>
+      <c r="B17" s="75">
+        <v>44985.354097222225</v>
+      </c>
+      <c r="C17" s="74" t="s">
+        <v>452</v>
+      </c>
+      <c r="D17" s="74" t="s">
+        <v>453</v>
+      </c>
+      <c r="E17" s="74" t="s">
+        <v>454</v>
+      </c>
+      <c r="F17" s="74" t="s">
+        <v>446</v>
+      </c>
+      <c r="G17" s="74" t="s">
+        <v>394</v>
+      </c>
+      <c r="H17" s="74">
+        <v>89100</v>
+      </c>
+      <c r="I17" s="74" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="74" t="s">
+        <v>455</v>
+      </c>
+      <c r="K17" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Not Desired </v>
+      </c>
+      <c r="L17" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Not Desired </v>
+      </c>
+      <c r="M17" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> Not Desired</v>
+      </c>
+      <c r="N17" s="74" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="74" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="74" t="str">
+        <f t="shared" si="4"/>
+        <v>Not Desired</v>
+      </c>
+      <c r="Q17" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v>Salary &gt; 85K</v>
+      </c>
+      <c r="R17" s="74" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="74" t="s">
+        <v>384</v>
+      </c>
+      <c r="B18" s="75">
+        <v>45063.792291666665</v>
+      </c>
+      <c r="C18" s="74" t="s">
+        <v>456</v>
+      </c>
+      <c r="D18" s="74" t="s">
+        <v>391</v>
+      </c>
+      <c r="E18" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="F18" s="74" t="s">
+        <v>423</v>
+      </c>
+      <c r="G18" s="74" t="s">
+        <v>400</v>
+      </c>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="74" t="s">
+        <v>458</v>
+      </c>
+      <c r="K18" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Not Desired </v>
+      </c>
+      <c r="L18" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="M18" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="N18" s="74" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="74" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P18" s="74" t="str">
+        <f t="shared" si="4"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="Q18" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v>Salary Low</v>
+      </c>
+      <c r="R18" s="74" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="74" t="s">
+        <v>354</v>
+      </c>
+      <c r="B19" s="75">
+        <v>45017.004837962966</v>
+      </c>
+      <c r="C19" s="74" t="s">
+        <v>459</v>
+      </c>
+      <c r="D19" s="74" t="s">
+        <v>411</v>
+      </c>
+      <c r="E19" s="74" t="s">
+        <v>460</v>
+      </c>
+      <c r="F19" s="74" t="s">
+        <v>423</v>
+      </c>
+      <c r="G19" s="74" t="s">
+        <v>394</v>
+      </c>
+      <c r="H19" s="74">
+        <v>87500</v>
+      </c>
+      <c r="I19" s="74" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="74" t="s">
+        <v>461</v>
+      </c>
+      <c r="K19" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Not Desired </v>
+      </c>
+      <c r="L19" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Not Desired </v>
+      </c>
+      <c r="M19" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> Not Desired</v>
+      </c>
+      <c r="N19" s="74" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="74" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="74" t="str">
+        <f t="shared" si="4"/>
+        <v>Not Desired</v>
+      </c>
+      <c r="Q19" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v>Salary &gt; 85K</v>
+      </c>
+      <c r="R19" s="74" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="74" t="s">
+        <v>354</v>
+      </c>
+      <c r="B20" s="75">
+        <v>45169.64203703704</v>
+      </c>
+      <c r="C20" s="74" t="s">
+        <v>396</v>
+      </c>
+      <c r="D20" s="74" t="s">
+        <v>411</v>
+      </c>
+      <c r="E20" s="74" t="s">
+        <v>462</v>
+      </c>
+      <c r="F20" s="74" t="s">
+        <v>430</v>
+      </c>
+      <c r="G20" s="74" t="s">
+        <v>400</v>
+      </c>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="74" t="s">
+        <v>463</v>
+      </c>
+      <c r="K20" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Not Desired </v>
+      </c>
+      <c r="L20" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Not Desired </v>
+      </c>
+      <c r="M20" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> Not Desired</v>
+      </c>
+      <c r="N20" s="74" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="74" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="74" t="str">
+        <f t="shared" si="4"/>
+        <v>Not Desired</v>
+      </c>
+      <c r="Q20" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v>Salary Low</v>
+      </c>
+      <c r="R20" s="74" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="74" t="s">
+        <v>384</v>
+      </c>
+      <c r="B21" s="75">
+        <v>45000.542685185188</v>
+      </c>
+      <c r="C21" s="74" t="s">
+        <v>464</v>
+      </c>
+      <c r="D21" s="74" t="s">
+        <v>391</v>
+      </c>
+      <c r="E21" s="74" t="s">
+        <v>465</v>
+      </c>
+      <c r="F21" s="74" t="s">
+        <v>466</v>
+      </c>
+      <c r="G21" s="74" t="s">
+        <v>394</v>
+      </c>
+      <c r="H21" s="74">
+        <v>90000</v>
+      </c>
+      <c r="I21" s="74" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="74" t="s">
+        <v>467</v>
+      </c>
+      <c r="K21" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Not Desired </v>
+      </c>
+      <c r="L21" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="M21" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="N21" s="74" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="74" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P21" s="74" t="str">
+        <f t="shared" si="4"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="Q21" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v>Salary &gt; 85K</v>
+      </c>
+      <c r="R21" s="74" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>